--- a/CAJA MENOR/CAJA MENOR 2024..xlsx
+++ b/CAJA MENOR/CAJA MENOR 2024..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CAJA MENOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757D7ABD-B438-4F44-BF3E-0FDA4E2CC423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A171DEB-97AA-45AD-88F4-187450124E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{698F33CB-1391-4E30-84A6-D64B5A46AD5D}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="231">
   <si>
     <t>VALOR ENTREGADO  29 DICIEMBRE  DE 2023</t>
   </si>
@@ -731,6 +731,30 @@
   </si>
   <si>
     <t>12 ABRIL DE 2024</t>
+  </si>
+  <si>
+    <t>13 ABRIL DE 2024</t>
+  </si>
+  <si>
+    <t>14 ABRIL DE 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIATICOS IESS MILAGRO  JEAN CARLOS MEJIA </t>
+  </si>
+  <si>
+    <t>PARQUEO OMNIHOSPITAL  CARLOS PINEDA</t>
+  </si>
+  <si>
+    <t>PARQUEO HOSPITAL ROBERTO GILBERT   CARLOS PINEDA</t>
+  </si>
+  <si>
+    <t>PAGO ENVIO EUROMEDIC PROTESIS DE THOMPSON</t>
+  </si>
+  <si>
+    <t>5 ABRIL DE 2024</t>
+  </si>
+  <si>
+    <t>15 ABRIL DE 2024</t>
   </si>
 </sst>
 </file>
@@ -4565,8 +4589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA738C2-0681-4462-AD8B-B627961D5D51}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5199,10 +5223,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD56ACEB-5D83-430D-87F3-4E21E688A52C}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5293,78 +5317,74 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="8">
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8">
         <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="8">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>207</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="D9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>207</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="D10" s="8">
-        <v>1.25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>207</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>212</v>
+        <v>6</v>
       </c>
       <c r="D11" s="8">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>207</v>
@@ -5378,215 +5398,287 @@
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>207</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D13" s="8">
-        <v>1.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="D14" s="8">
-        <v>9.9499999999999993</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D15" s="8">
-        <v>6</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D16" s="8">
-        <v>9.1999999999999993</v>
+        <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="D17" s="8">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D18" s="8">
-        <v>30</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D19" s="8">
-        <v>40</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D20" s="8">
-        <v>19</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="8">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="8">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="8">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>24</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="8">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>26</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="8">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>27</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="8">
+        <v>20</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>28</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>29</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
+        <v>28</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -5594,7 +5686,7 @@
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
@@ -5602,7 +5694,7 @@
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
@@ -5610,7 +5702,7 @@
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
@@ -5618,7 +5710,7 @@
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
@@ -5626,7 +5718,7 @@
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
@@ -5634,7 +5726,7 @@
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
@@ -5642,7 +5734,7 @@
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -5650,7 +5742,7 @@
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -5658,7 +5750,7 @@
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
@@ -5666,7 +5758,7 @@
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
@@ -5674,7 +5766,7 @@
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
@@ -5682,7 +5774,7 @@
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
@@ -5690,7 +5782,7 @@
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -5698,7 +5790,7 @@
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
@@ -5706,7 +5798,7 @@
     </row>
     <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
@@ -5714,83 +5806,95 @@
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
+        <v>45</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>46</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="9">
-        <f>SUM(D3:D49)</f>
-        <v>300.44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="10"/>
-      <c r="D51" s="11">
-        <f>D1-D50</f>
-        <v>199.56</v>
-      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="12"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="9">
+        <f>SUM(D3:D51)</f>
+        <v>391.64</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C54" s="13" t="s">
+      <c r="C53" s="10"/>
+      <c r="D53" s="11">
+        <f>D1-D52</f>
+        <v>108.36000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="12"/>
+    </row>
+    <row r="55" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C56" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C55" s="13" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C57" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C57" s="14"/>
-      <c r="D57" s="10"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C58" s="15" t="s">
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C59" s="14"/>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C60" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D58" s="1">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C59" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D59" s="11">
-        <v>10.95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C60" s="14"/>
-      <c r="D60" s="11"/>
+      <c r="D60" s="1">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C61" s="16"/>
-      <c r="D61" s="12">
+      <c r="C61" s="15"/>
+      <c r="D61" s="11"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C62" s="14"/>
+      <c r="D62" s="11"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C63" s="16"/>
+      <c r="D63" s="12">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C62" s="15"/>
-    </row>
-    <row r="67" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D67" s="12"/>
-    </row>
-    <row r="68" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D68" s="12"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C64" s="15"/>
+    </row>
+    <row r="69" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D69" s="12"/>
+    </row>
+    <row r="70" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D70" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/CAJA MENOR/CAJA MENOR 2024..xlsx
+++ b/CAJA MENOR/CAJA MENOR 2024..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CAJA MENOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A171DEB-97AA-45AD-88F4-187450124E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDDEF77-1009-4145-90B3-1CC7A1F80F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{698F33CB-1391-4E30-84A6-D64B5A46AD5D}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="233">
   <si>
     <t>VALOR ENTREGADO  29 DICIEMBRE  DE 2023</t>
   </si>
@@ -755,6 +755,12 @@
   </si>
   <si>
     <t>15 ABRIL DE 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARQUEO HOSPITAL LUIS VERNAZA WANNER CASTRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARQUEO HOSPITAL PAULSON WANNER CASTRO </t>
   </si>
 </sst>
 </file>
@@ -5225,8 +5231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD56ACEB-5D83-430D-87F3-4E21E688A52C}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5319,13 +5325,13 @@
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D7" s="8">
-        <v>5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5334,10 +5340,10 @@
         <v>229</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="D8" s="8">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5345,10 +5351,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>208</v>
+        <v>6</v>
       </c>
       <c r="D9" s="8">
         <v>20</v>
@@ -5362,10 +5368,10 @@
         <v>207</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D10" s="8">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5376,10 +5382,10 @@
         <v>207</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="D11" s="8">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5390,10 +5396,10 @@
         <v>207</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="D12" s="8">
-        <v>1.25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5404,10 +5410,10 @@
         <v>207</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="D13" s="8">
-        <v>5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5418,10 +5424,10 @@
         <v>207</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="D14" s="8">
-        <v>1.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5432,7 +5438,7 @@
         <v>207</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>213</v>
+        <v>90</v>
       </c>
       <c r="D15" s="8">
         <v>1.25</v>
@@ -5443,13 +5449,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" s="8">
-        <v>9.9499999999999993</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5460,10 +5466,10 @@
         <v>211</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D17" s="8">
-        <v>6</v>
+        <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5474,10 +5480,10 @@
         <v>211</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D18" s="8">
-        <v>0.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5485,13 +5491,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D19" s="8">
-        <v>9.1999999999999993</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5502,10 +5508,10 @@
         <v>217</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="D20" s="8">
-        <v>0.4</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5516,10 +5522,10 @@
         <v>217</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="D21" s="8">
-        <v>1.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5541,13 +5547,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="D23" s="8">
-        <v>20</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5558,10 +5564,10 @@
         <v>219</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="D24" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5569,10 +5575,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D25" s="8">
         <v>30</v>
@@ -5586,10 +5592,10 @@
         <v>222</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>5</v>
+        <v>221</v>
       </c>
       <c r="D26" s="8">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5597,13 +5603,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D27" s="8">
-        <v>0.4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5614,10 +5620,10 @@
         <v>223</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D28" s="8">
-        <v>20</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5628,7 +5634,7 @@
         <v>223</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>225</v>
+        <v>6</v>
       </c>
       <c r="D29" s="8">
         <v>20</v>
@@ -5639,13 +5645,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c r="D30" s="8">
-        <v>1.25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5653,10 +5659,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="D31" s="8">
         <v>1.25</v>
@@ -5670,27 +5676,39 @@
         <v>230</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8">
-        <v>30</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>29</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
+      <c r="B33" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" s="8">
+        <v>30</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>30</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
+      <c r="B34" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
@@ -5834,14 +5852,14 @@
       <c r="C52" s="7"/>
       <c r="D52" s="9">
         <f>SUM(D3:D51)</f>
-        <v>391.64</v>
+        <v>394.14</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="10"/>
       <c r="D53" s="11">
         <f>D1-D52</f>
-        <v>108.36000000000001</v>
+        <v>105.86000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/CAJA MENOR/CAJA MENOR 2024..xlsx
+++ b/CAJA MENOR/CAJA MENOR 2024..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CAJA MENOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDDEF77-1009-4145-90B3-1CC7A1F80F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C481054B-53E2-49AC-A35A-45721DA94D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{698F33CB-1391-4E30-84A6-D64B5A46AD5D}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="235">
   <si>
     <t>VALOR ENTREGADO  29 DICIEMBRE  DE 2023</t>
   </si>
@@ -761,6 +761,12 @@
   </si>
   <si>
     <t xml:space="preserve">PARQUEO HOSPITAL PAULSON WANNER CASTRO </t>
+  </si>
+  <si>
+    <t>16 ABRIL DE 2024</t>
+  </si>
+  <si>
+    <t>DESPINCHE LLANTA VAN GCT 2889</t>
   </si>
 </sst>
 </file>
@@ -5231,8 +5237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD56ACEB-5D83-430D-87F3-4E21E688A52C}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5714,9 +5720,15 @@
       <c r="A35" s="5">
         <v>31</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
+      <c r="B35" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D35" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
@@ -5852,14 +5864,14 @@
       <c r="C52" s="7"/>
       <c r="D52" s="9">
         <f>SUM(D3:D51)</f>
-        <v>394.14</v>
+        <v>404.14</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="10"/>
       <c r="D53" s="11">
         <f>D1-D52</f>
-        <v>105.86000000000001</v>
+        <v>95.860000000000014</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/CAJA MENOR/CAJA MENOR 2024..xlsx
+++ b/CAJA MENOR/CAJA MENOR 2024..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CAJA MENOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C481054B-53E2-49AC-A35A-45721DA94D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7C6AC6-2451-4FD8-BDD4-5FEE2B9956EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{698F33CB-1391-4E30-84A6-D64B5A46AD5D}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="237">
   <si>
     <t>VALOR ENTREGADO  29 DICIEMBRE  DE 2023</t>
   </si>
@@ -767,6 +767,12 @@
   </si>
   <si>
     <t>DESPINCHE LLANTA VAN GCT 2889</t>
+  </si>
+  <si>
+    <t>17 ABRIL DE 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIATICOS IESS MILAGRO JONATHAN RIVAS </t>
   </si>
 </sst>
 </file>
@@ -5235,10 +5241,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD56ACEB-5D83-430D-87F3-4E21E688A52C}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5734,17 +5740,29 @@
       <c r="A36" s="5">
         <v>32</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
+      <c r="B36" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="8">
+        <v>20</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>33</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
+      <c r="B37" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="8">
+        <v>20</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
@@ -5770,161 +5788,73 @@
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
-        <v>37</v>
-      </c>
-      <c r="B41" s="6"/>
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
-        <v>38</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
-        <v>39</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="D41" s="9">
+        <f>SUM(D3:D40)</f>
+        <v>444.14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="10"/>
+      <c r="D42" s="11">
+        <f>D1-D41</f>
+        <v>55.860000000000014</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C45" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C46" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C48" s="14"/>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C49" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C50" s="15"/>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C51" s="14"/>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C52" s="16"/>
+      <c r="D52" s="12">
         <v>40</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
-        <v>41</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
-        <v>42</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
-        <v>43</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
-        <v>44</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
-        <v>45</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
-        <v>46</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
-        <v>47</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="9">
-        <f>SUM(D3:D51)</f>
-        <v>404.14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="10"/>
-      <c r="D53" s="11">
-        <f>D1-D52</f>
-        <v>95.860000000000014</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="12"/>
-    </row>
-    <row r="55" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C56" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C57" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C59" s="14"/>
-      <c r="D59" s="10"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C60" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C61" s="15"/>
-      <c r="D61" s="11"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C62" s="14"/>
-      <c r="D62" s="11"/>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C63" s="16"/>
-      <c r="D63" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C64" s="15"/>
-    </row>
-    <row r="69" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D69" s="12"/>
-    </row>
-    <row r="70" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D70" s="12"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C53" s="15"/>
+    </row>
+    <row r="58" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D58" s="12"/>
+    </row>
+    <row r="59" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D59" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/CAJA MENOR/CAJA MENOR 2024..xlsx
+++ b/CAJA MENOR/CAJA MENOR 2024..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CAJA MENOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7C6AC6-2451-4FD8-BDD4-5FEE2B9956EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E517BCF-8535-4EF0-AC99-0EF5B1F2D111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{698F33CB-1391-4E30-84A6-D64B5A46AD5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{698F33CB-1391-4E30-84A6-D64B5A46AD5D}"/>
   </bookViews>
   <sheets>
     <sheet name="29 DICIEMBRE " sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="6 MARZO " sheetId="5" r:id="rId5"/>
     <sheet name="26 MARZO " sheetId="6" r:id="rId6"/>
     <sheet name="8 ABRIL " sheetId="7" r:id="rId7"/>
+    <sheet name="19 ABRIL " sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'01 FEBRERO '!$A$1:$D$50</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="245">
   <si>
     <t>VALOR ENTREGADO  29 DICIEMBRE  DE 2023</t>
   </si>
@@ -655,9 +656,6 @@
     <t xml:space="preserve">COMPRA DE CUADERNOS REGISTRO DIARIO BODEGA </t>
   </si>
   <si>
-    <t xml:space="preserve">PAGO ESTERILIZACION INTERHOSPITAL </t>
-  </si>
-  <si>
     <t>03 ABRIL DE 2024</t>
   </si>
   <si>
@@ -685,9 +683,6 @@
     <t xml:space="preserve">VIATICOS QUEVEDO JOEL MOSQUERA </t>
   </si>
   <si>
-    <t>8 ABRIL DE 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">PAGO ARREGLO DE PIEZAS DON LUIS </t>
   </si>
   <si>
@@ -697,9 +692,6 @@
     <t>VIATICOS IESS MILAGRO  JONATHAN RIVAS PLACA VOLAR</t>
   </si>
   <si>
-    <t>9 ABRIL DE 2024</t>
-  </si>
-  <si>
     <t>PARQUEO HOSÌTAL ROBERTO GILBERT   JEAN CARLOS MEJIA</t>
   </si>
   <si>
@@ -751,9 +743,6 @@
     <t>PAGO ENVIO EUROMEDIC PROTESIS DE THOMPSON</t>
   </si>
   <si>
-    <t>5 ABRIL DE 2024</t>
-  </si>
-  <si>
     <t>15 ABRIL DE 2024</t>
   </si>
   <si>
@@ -773,6 +762,42 @@
   </si>
   <si>
     <t xml:space="preserve">VIATICOS IESS MILAGRO JONATHAN RIVAS </t>
+  </si>
+  <si>
+    <t>VALOR ENTREGADO  19 ABRIL  DE 2024</t>
+  </si>
+  <si>
+    <t>VALOR ENTREGADO  8 ABRIL  DE 2024</t>
+  </si>
+  <si>
+    <t>19 ABRIL DE 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIATICOS CLINICA SANTA MARTHA MILAGRO JONATHAN RIVAS </t>
+  </si>
+  <si>
+    <t>04 ABRIL DE 2024</t>
+  </si>
+  <si>
+    <t>05 ABRIL DE 2024</t>
+  </si>
+  <si>
+    <t>08 ABRIL DE 2024</t>
+  </si>
+  <si>
+    <t>09 ABRIL DE 2024</t>
+  </si>
+  <si>
+    <t>20 ABRIL DE 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFRIGERIO  HOSPITAL LUIS VERNAZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPRA DE ASEO, CAFETERIA Y VARIOS BODEGA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEBE CARLOS </t>
   </si>
 </sst>
 </file>
@@ -810,18 +835,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -864,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -902,11 +921,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4650,7 +4664,7 @@
         <v>111</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" s="8">
         <v>3</v>
@@ -4734,7 +4748,7 @@
         <v>172</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D9" s="8">
         <v>7.5</v>
@@ -5081,10 +5095,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="D34" s="8">
         <v>20</v>
@@ -5095,10 +5109,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D35" s="8">
         <v>6.35</v>
@@ -5109,10 +5123,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D36" s="8">
         <v>20</v>
@@ -5123,7 +5137,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>5</v>
@@ -5137,10 +5151,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D38" s="8">
         <v>15.48</v>
@@ -5151,10 +5165,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="D39" s="8">
         <v>40</v>
@@ -5241,10 +5255,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD56ACEB-5D83-430D-87F3-4E21E688A52C}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5258,7 +5272,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="D1" s="3">
         <v>500</v>
@@ -5310,14 +5324,14 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="20">
-        <v>67.040000000000006</v>
+      <c r="B5" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5325,448 +5339,909 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="8">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="8">
+      <c r="C24" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="D30" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>36</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>38</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>39</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="9">
+        <f>SUM(D3:D41)</f>
+        <v>446.09999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="10"/>
+      <c r="D43" s="11">
+        <f>D1-D42</f>
+        <v>53.900000000000034</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C46" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C47" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C49" s="14"/>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C50" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C51" s="15"/>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C52" s="14"/>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C53" s="16"/>
+      <c r="D53" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C54" s="15"/>
+    </row>
+    <row r="59" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D59" s="12"/>
+    </row>
+    <row r="60" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D60" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8710B57-76CF-48C0-8B3E-01EEB970DD16}">
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="118.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="8">
+        <v>123.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1.25</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="8">
-        <v>20</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="8">
-        <v>20</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="8">
-        <v>40</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="8">
-        <v>22</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1.25</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" s="8">
-        <v>5</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1.25</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>12</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1.25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>13</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D17" s="8">
-        <v>9.9499999999999993</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>14</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" s="8">
-        <v>6</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>15</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0.4</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>16</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D20" s="8">
-        <v>9.1999999999999993</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>17</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0.4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>18</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1.25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>19</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D23" s="8">
-        <v>1.25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>20</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D24" s="8">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>21</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D25" s="8">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>22</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D26" s="8">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>23</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="8">
-        <v>19</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>24</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0.4</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>25</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="8">
-        <v>20</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>26</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D30" s="8">
-        <v>20</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>27</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1.25</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>28</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="8">
-        <v>1.25</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>29</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D33" s="8">
         <v>30</v>
       </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>30</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D34" s="8">
-        <v>1.25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>31</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D35" s="8">
-        <v>10</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>32</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D36" s="8">
-        <v>20</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>33</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="8">
-        <v>20</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
@@ -5774,87 +6249,81 @@
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
-        <v>36</v>
-      </c>
-      <c r="B40" s="6"/>
+    <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
+      <c r="D40" s="9">
+        <f>SUM(D3:D39)</f>
+        <v>143.4</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="9">
-        <f>SUM(D3:D40)</f>
-        <v>444.14</v>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11">
+        <f>D1-D40</f>
+        <v>356.6</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="10"/>
-      <c r="D42" s="11">
-        <f>D1-D41</f>
-        <v>55.860000000000014</v>
-      </c>
+      <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="12"/>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C44" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C45" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C46" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C48" s="14"/>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="14"/>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C48" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C49" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1.25</v>
+        <v>244</v>
+      </c>
+      <c r="D49" s="11">
+        <v>7.04</v>
       </c>
     </row>
     <row r="50" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C50" s="15"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="11"/>
     </row>
     <row r="51" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C51" s="14"/>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C52" s="16"/>
-      <c r="D52" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C53" s="15"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="12"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C52" s="15"/>
+    </row>
+    <row r="57" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D57" s="12"/>
     </row>
     <row r="58" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D58" s="12"/>
-    </row>
-    <row r="59" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D59" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
